--- a/validacion_diaria_aht.xlsx
+++ b/validacion_diaria_aht.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e7f01a4cf0ecc30/Escritorio/TFM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FE84C33E5C11503206FE31D2F8F2D3C2A45911A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F424B5C-7E64-499C-B14C-4F2E10B5AD57}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FE84C33E5C11503206FE31D2F8F2D3C2A45911A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC8917BB-726B-48FC-A8D6-50D1C6451CA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$489</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -141,6 +144,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J489"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +510,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -534,7 +542,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -566,7 +574,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -598,7 +606,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,7 +638,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -662,7 +670,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -694,7 +702,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -726,7 +734,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -758,7 +766,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,7 +798,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -822,7 +830,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -854,7 +862,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -886,7 +894,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -918,7 +926,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,7 +958,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -982,7 +990,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1078,7 +1086,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1174,7 +1182,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1782,7 +1790,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1974,7 +1982,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2038,7 +2046,7 @@
         <v>45340</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>45346</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2422,7 +2430,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>45353</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2518,7 +2526,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2614,7 +2622,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2646,7 +2654,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2806,7 +2814,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2998,7 +3006,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3126,7 +3134,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3158,7 +3166,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3318,7 +3326,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3414,7 +3422,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3510,7 +3518,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3894,7 +3902,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3990,7 +3998,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4054,7 +4062,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4118,7 +4126,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4342,7 +4350,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4534,7 +4542,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4630,7 +4638,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4790,7 +4798,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5014,7 +5022,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5110,7 +5118,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5142,7 +5150,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>45340</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5302,7 +5310,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5366,7 +5374,7 @@
         <v>45346</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5398,7 +5406,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5526,7 +5534,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5558,7 +5566,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5590,7 +5598,7 @@
         <v>45353</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5718,7 +5726,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5750,7 +5758,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5782,7 +5790,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5814,7 +5822,7 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5878,7 +5886,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5910,7 +5918,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6102,7 +6110,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6134,7 +6142,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6166,7 +6174,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6198,7 +6206,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6486,7 +6494,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6550,7 +6558,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6614,7 +6622,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6710,7 +6718,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9878,7 +9886,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9910,7 +9918,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9942,7 +9950,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9974,7 +9982,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10038,7 +10046,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10070,7 +10078,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -10102,7 +10110,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -10134,7 +10142,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -10166,7 +10174,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -10198,7 +10206,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -10262,7 +10270,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -10294,7 +10302,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -10326,7 +10334,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -10358,7 +10366,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -10390,7 +10398,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -10422,7 +10430,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -10454,7 +10462,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -10486,7 +10494,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -10518,7 +10526,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -10550,7 +10558,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -10582,7 +10590,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -10614,7 +10622,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -10678,7 +10686,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -10710,7 +10718,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -10742,7 +10750,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -10774,7 +10782,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -10806,7 +10814,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -10838,7 +10846,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -10870,7 +10878,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -10902,7 +10910,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -10934,7 +10942,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -10966,7 +10974,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -10998,7 +11006,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -11030,7 +11038,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -11062,7 +11070,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -11094,7 +11102,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -11126,7 +11134,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -11158,7 +11166,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -11190,7 +11198,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11222,7 +11230,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11254,7 +11262,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11286,7 +11294,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11350,7 +11358,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11382,7 +11390,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -11414,7 +11422,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -11446,7 +11454,7 @@
         <v>45340</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -11478,7 +11486,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -11510,7 +11518,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -11542,7 +11550,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -11574,7 +11582,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -11606,7 +11614,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -11638,7 +11646,7 @@
         <v>45346</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -11670,7 +11678,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -11702,7 +11710,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -11734,7 +11742,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -11766,7 +11774,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -11830,7 +11838,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -11862,7 +11870,7 @@
         <v>45353</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -11894,7 +11902,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -11926,7 +11934,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -11958,7 +11966,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -11990,7 +11998,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12022,7 +12030,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12054,7 +12062,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12086,7 +12094,7 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12118,7 +12126,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12150,7 +12158,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12182,7 +12190,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12214,7 +12222,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12310,7 +12318,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12374,7 +12382,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12406,7 +12414,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12438,7 +12446,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12502,7 +12510,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12534,7 +12542,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12566,7 +12574,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12598,7 +12606,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -12630,7 +12638,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -12662,7 +12670,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -12694,7 +12702,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -12726,7 +12734,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -12790,7 +12798,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -12822,7 +12830,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -12854,7 +12862,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -12886,7 +12894,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -12918,7 +12926,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -12950,7 +12958,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -12982,7 +12990,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -13014,7 +13022,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -13046,7 +13054,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -13078,7 +13086,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -13110,7 +13118,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -13142,7 +13150,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -13174,7 +13182,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -13206,7 +13214,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -13238,7 +13246,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -13270,7 +13278,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -13302,7 +13310,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -13334,7 +13342,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -13366,7 +13374,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -13398,7 +13406,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -13430,7 +13438,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -13462,7 +13470,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -13494,7 +13502,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -13526,7 +13534,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -13558,7 +13566,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13590,7 +13598,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13622,7 +13630,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13654,7 +13662,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -13718,7 +13726,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -13750,7 +13758,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -13782,7 +13790,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13814,7 +13822,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13846,7 +13854,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13878,7 +13886,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13910,7 +13918,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13942,7 +13950,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13974,7 +13982,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -14006,7 +14014,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -14038,7 +14046,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -14070,7 +14078,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -14102,7 +14110,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -14134,7 +14142,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -14166,7 +14174,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -14198,7 +14206,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -14230,7 +14238,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -14262,7 +14270,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -14326,7 +14334,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -14358,7 +14366,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -14390,7 +14398,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -14422,7 +14430,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -14454,7 +14462,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -14486,7 +14494,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -14518,7 +14526,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -14550,7 +14558,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -14582,7 +14590,7 @@
         <v>45340</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -14614,7 +14622,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -14646,7 +14654,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -14678,7 +14686,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -14710,7 +14718,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -14742,7 +14750,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -14774,7 +14782,7 @@
         <v>45346</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -14806,7 +14814,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -14838,7 +14846,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -14870,7 +14878,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -14902,7 +14910,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -14934,7 +14942,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -14966,7 +14974,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -14998,7 +15006,7 @@
         <v>45353</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -15030,7 +15038,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -15062,7 +15070,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -15094,7 +15102,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -15126,7 +15134,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -15158,7 +15166,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -15190,7 +15198,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -15222,7 +15230,7 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -15254,7 +15262,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -15286,7 +15294,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -15318,7 +15326,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -15350,7 +15358,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -15382,7 +15390,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -15414,7 +15422,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -15446,7 +15454,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -15478,7 +15486,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -15510,7 +15518,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -15542,7 +15550,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -15574,7 +15582,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -15606,7 +15614,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -15638,7 +15646,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -15670,7 +15678,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -15702,7 +15710,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -15734,7 +15742,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -15766,7 +15774,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -15798,7 +15806,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -15830,7 +15838,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -15862,7 +15870,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -15894,7 +15902,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -15926,7 +15934,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -15958,7 +15966,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -15990,7 +15998,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -16022,7 +16030,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -16054,7 +16062,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -16087,6 +16095,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J489" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="linea_3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>